--- a/output7/【河洛文讀注音-閩拼調號】《深慮論》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《深慮論》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EC9B72C-BB36-4C0C-A64D-C271FAE43AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E10993B-B6EB-45A4-9068-7981705E5BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="6" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7430" uniqueCount="2195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7430" uniqueCount="2200">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6764,6 +6764,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>漢字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台語音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>kiat4</t>
   </si>
   <si>
@@ -7406,6 +7422,9 @@
   <si>
     <t>【河洛文讀注音-閩拼調號】《深慮論》.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注音二式</t>
   </si>
 </sst>
 </file>
@@ -10321,7 +10340,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -10369,7 +10388,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -10481,7 +10500,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>1395</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -10519,7 +10538,7 @@
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C18:C19 C15" xr:uid="{1BA64418-DA5D-4006-AA4E-9804DC7420B5}">
-      <formula1>" ,十五音, 雅俗通,方音符號,台語音標, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
+      <formula1>" ,十五音, 雅俗通,方音符號,台語音標, 注音二式, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22359,16 +22378,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2033</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2034</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2035</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2036</v>
       </c>
     </row>
   </sheetData>
@@ -22389,16 +22408,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2033</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2034</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2035</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -23568,7 +23587,7 @@
         <v>1496</v>
       </c>
       <c r="B85" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="C85" t="s">
         <v>499</v>
@@ -24786,7 +24805,7 @@
         <v>1554</v>
       </c>
       <c r="B172" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="C172" t="s">
         <v>499</v>
@@ -25248,7 +25267,7 @@
         <v>1416</v>
       </c>
       <c r="B205" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="C205" t="s">
         <v>499</v>
@@ -25332,7 +25351,7 @@
         <v>1581</v>
       </c>
       <c r="B211" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="C211" t="s">
         <v>499</v>
@@ -29043,7 +29062,7 @@
         <v>1972</v>
       </c>
       <c r="U203" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -29145,7 +29164,7 @@
         <v>1806</v>
       </c>
       <c r="U209" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="210" spans="1:21">
@@ -32524,22 +32543,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC36DD5-0F11-4DC1-8259-F26366C2D232}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2033</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2034</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2035</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -32796,26 +32817,26 @@
         <v>1850</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="G6" s="77" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="H6" s="77"/>
       <c r="I6" s="77"/>
       <c r="J6" s="77"/>
       <c r="K6" s="77" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="L6" s="77"/>
       <c r="M6" s="77" t="s">
         <v>708</v>
       </c>
       <c r="N6" s="77" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="O6" s="77" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="P6" s="77"/>
       <c r="Q6" s="64"/>
@@ -32947,45 +32968,45 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="78" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="H10" s="78"/>
       <c r="I10" s="78" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="J10" s="78" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="K10" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="M10" s="78" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="N10" s="78"/>
       <c r="O10" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="P10" s="78" t="s">
+        <v>2055</v>
+      </c>
+      <c r="Q10" s="78" t="s">
         <v>2051</v>
       </c>
-      <c r="Q10" s="78" t="s">
-        <v>2047</v>
-      </c>
       <c r="R10" s="78" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="S10" s="81"/>
       <c r="V10" s="70"/>
@@ -33111,42 +33132,42 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="78" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="E14" s="78"/>
       <c r="F14" s="78" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="H14" s="78" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="I14" s="78" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="J14" s="78" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="K14" s="78"/>
       <c r="L14" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="M14" s="78" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="O14" s="78" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="P14" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="Q14" s="78" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="R14" s="78"/>
       <c r="S14" s="81"/>
@@ -33279,44 +33300,44 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="78" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="H18" s="78" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="I18" s="78" t="s">
         <v>1847</v>
       </c>
       <c r="J18" s="78" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="K18" s="78" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="L18" s="78" t="s">
         <v>601</v>
       </c>
       <c r="M18" s="78" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="N18" s="78"/>
       <c r="O18" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="P18" s="78" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="Q18" s="78" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="R18" s="78" t="s">
         <v>599</v>
@@ -33449,44 +33470,44 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="H22" s="78" t="s">
         <v>601</v>
       </c>
       <c r="I22" s="78" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="J22" s="78"/>
       <c r="K22" s="78" t="s">
         <v>599</v>
       </c>
       <c r="L22" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="M22" s="78" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="N22" s="78" t="s">
         <v>601</v>
       </c>
       <c r="O22" s="78" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="P22" s="78" t="s">
         <v>1866</v>
       </c>
       <c r="Q22" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="R22" s="78"/>
       <c r="S22" s="81"/>
@@ -33618,42 +33639,42 @@
         <v>637</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="F26" s="78" t="s">
         <v>601</v>
       </c>
       <c r="G26" s="78" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H26" s="78" t="s">
+        <v>2072</v>
+      </c>
+      <c r="I26" s="78" t="s">
+        <v>2073</v>
+      </c>
+      <c r="J26" s="78" t="s">
         <v>2048</v>
-      </c>
-      <c r="H26" s="78" t="s">
-        <v>2068</v>
-      </c>
-      <c r="I26" s="78" t="s">
-        <v>2069</v>
-      </c>
-      <c r="J26" s="78" t="s">
-        <v>2044</v>
       </c>
       <c r="K26" s="78"/>
       <c r="L26" s="78" t="s">
+        <v>2074</v>
+      </c>
+      <c r="M26" s="78" t="s">
         <v>2070</v>
-      </c>
-      <c r="M26" s="78" t="s">
-        <v>2066</v>
       </c>
       <c r="N26" s="78" t="s">
         <v>601</v>
       </c>
       <c r="O26" s="78" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="P26" s="78" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="Q26" s="78"/>
       <c r="R26" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="S26" s="81"/>
       <c r="V26" s="70"/>
@@ -33795,13 +33816,13 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
       <c r="D30" s="78" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="E30" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="G30" s="78" t="s">
         <v>1871</v>
@@ -33810,26 +33831,26 @@
         <v>601</v>
       </c>
       <c r="I30" s="78" t="s">
+        <v>2052</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>2061</v>
+      </c>
+      <c r="K30" s="78" t="s">
+        <v>2073</v>
+      </c>
+      <c r="L30" s="78" t="s">
         <v>2048</v>
-      </c>
-      <c r="J30" s="78" t="s">
-        <v>2057</v>
-      </c>
-      <c r="K30" s="78" t="s">
-        <v>2069</v>
-      </c>
-      <c r="L30" s="78" t="s">
-        <v>2044</v>
       </c>
       <c r="M30" s="78"/>
       <c r="N30" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="O30" s="78" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="P30" s="78" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="Q30" s="78"/>
       <c r="R30" s="78"/>
@@ -33969,23 +33990,23 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="78" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="F34" s="78" t="s">
         <v>601</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="H34" s="78"/>
       <c r="I34" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="J34" s="78" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="K34" s="78" t="s">
         <v>1875</v>
@@ -33998,13 +34019,13 @@
       </c>
       <c r="N34" s="78"/>
       <c r="O34" s="78" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="P34" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="Q34" s="78" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="R34" s="78"/>
       <c r="S34" s="81"/>
@@ -34135,19 +34156,19 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="E38" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="F38" s="78" t="s">
         <v>846</v>
       </c>
       <c r="G38" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="H38" s="78" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="I38" s="78" t="s">
         <v>1866</v>
@@ -34156,11 +34177,11 @@
         <v>601</v>
       </c>
       <c r="K38" s="78" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="L38" s="78"/>
       <c r="M38" s="78" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="N38" s="78" t="s">
         <v>744</v>
@@ -34175,7 +34196,7 @@
         <v>601</v>
       </c>
       <c r="R38" s="78" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="S38" s="81"/>
       <c r="V38" s="70"/>
@@ -34303,45 +34324,45 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
       <c r="D42" s="78" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="E42" s="78"/>
       <c r="F42" s="78" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="G42" s="78" t="s">
         <v>708</v>
       </c>
       <c r="H42" s="78" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="I42" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="J42" s="78" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="K42" s="78" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
       <c r="L42" s="78" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="M42" s="78"/>
       <c r="N42" s="78" t="s">
         <v>708</v>
       </c>
       <c r="O42" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="P42" s="78" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="Q42" s="78" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="R42" s="78" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="S42" s="81"/>
       <c r="V42" s="70"/>
@@ -34469,45 +34490,45 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="78" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="E46" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="F46" s="78" t="s">
         <v>1885</v>
       </c>
       <c r="G46" s="78" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="H46" s="78"/>
       <c r="I46" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="J46" s="78" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="K46" s="78" t="s">
         <v>601</v>
       </c>
       <c r="L46" s="78" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="M46" s="78" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="N46" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="O46" s="78" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="P46" s="78" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="Q46" s="78"/>
       <c r="R46" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="S46" s="81"/>
       <c r="V46" s="70"/>
@@ -34570,7 +34591,7 @@
         <v>778</v>
       </c>
       <c r="P48" s="77" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="Q48" s="77" t="s">
         <v>1877</v>
@@ -34637,47 +34658,47 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="E50" s="78" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="F50" s="78" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="G50" s="78" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="H50" s="78" t="s">
         <v>599</v>
       </c>
       <c r="I50" s="78" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="J50" s="78" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="K50" s="78" t="s">
         <v>601</v>
       </c>
       <c r="L50" s="78" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="M50" s="78" t="s">
         <v>605</v>
       </c>
       <c r="N50" s="78"/>
       <c r="O50" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="P50" s="78" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="Q50" s="78" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="R50" s="78" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="S50" s="81"/>
       <c r="V50" s="70"/>
@@ -34810,42 +34831,42 @@
         <v>601</v>
       </c>
       <c r="E54" s="78" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="F54" s="78" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="G54" s="78"/>
       <c r="H54" s="78" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="I54" s="78" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="J54" s="78" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="K54" s="78" t="s">
         <v>601</v>
       </c>
       <c r="L54" s="78" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="M54" s="78" t="s">
         <v>1894</v>
       </c>
       <c r="N54" s="78"/>
       <c r="O54" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="P54" s="78" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="Q54" s="78" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="R54" s="78" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="S54" s="81"/>
       <c r="V54" s="70"/>
@@ -34973,16 +34994,16 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="78" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="E58" s="78" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
       <c r="F58" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="G58" s="78" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="H58" s="78" t="s">
         <v>1876</v>
@@ -34992,13 +35013,13 @@
       </c>
       <c r="J58" s="78"/>
       <c r="K58" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="L58" s="78" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="M58" s="78" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="N58" s="78" t="s">
         <v>1955</v>
@@ -35011,7 +35032,7 @@
       </c>
       <c r="Q58" s="78"/>
       <c r="R58" s="78" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="S58" s="81"/>
       <c r="V58" s="70"/>
@@ -35141,38 +35162,38 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="E62" s="78" t="s">
         <v>1899</v>
       </c>
       <c r="F62" s="78" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="G62" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="H62" s="78" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="I62" s="78" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="J62" s="78"/>
       <c r="K62" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="L62" s="78" t="s">
         <v>1901</v>
       </c>
       <c r="M62" s="78" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="N62" s="78" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="O62" s="78" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="P62" s="78" t="s">
         <v>904</v>
@@ -35181,7 +35202,7 @@
         <v>601</v>
       </c>
       <c r="R62" s="78" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="S62" s="81"/>
       <c r="V62" s="70"/>
@@ -35308,42 +35329,42 @@
       <c r="B66" s="22"/>
       <c r="D66" s="78"/>
       <c r="E66" s="78" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="F66" s="78"/>
       <c r="G66" s="78" t="s">
         <v>1906</v>
       </c>
       <c r="H66" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="I66" s="78" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="J66" s="78"/>
       <c r="K66" s="78" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="L66" s="78" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="M66" s="78" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="N66" s="78" t="s">
         <v>601</v>
       </c>
       <c r="O66" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="P66" s="78" t="s">
         <v>1908</v>
       </c>
       <c r="Q66" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="R66" s="78" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="S66" s="81"/>
       <c r="V66" s="70"/>
@@ -35398,7 +35419,7 @@
         <v>1910</v>
       </c>
       <c r="N68" s="77" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="O68" s="77" t="s">
         <v>852</v>
@@ -35470,41 +35491,41 @@
       <c r="B70" s="22"/>
       <c r="D70" s="78"/>
       <c r="E70" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="F70" s="78" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="I70" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="J70" s="78"/>
       <c r="K70" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="L70" s="78" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="M70" s="78" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="N70" s="78" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="O70" s="78" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="P70" s="78" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="Q70" s="78" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="R70" s="78"/>
       <c r="S70" s="81"/>
@@ -35631,36 +35652,36 @@
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
       <c r="D74" s="78" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="E74" s="78" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="F74" s="78" t="s">
         <v>601</v>
       </c>
       <c r="G74" s="78" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="H74" s="78" t="s">
         <v>1912</v>
       </c>
       <c r="I74" s="78"/>
       <c r="J74" s="78" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="K74" s="78"/>
       <c r="L74" s="78" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="M74" s="78" t="s">
         <v>601</v>
       </c>
       <c r="N74" s="78" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="O74" s="78" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="P74" s="78"/>
       <c r="Q74" s="78" t="s">
@@ -35795,45 +35816,45 @@
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
       <c r="D78" s="78" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="E78" s="78" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="F78" s="78"/>
       <c r="G78" s="78" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="H78" s="78" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="I78" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="J78" s="78" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="K78" s="78" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="L78" s="78" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="M78" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="N78" s="78" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="O78" s="78" t="s">
         <v>601</v>
       </c>
       <c r="P78" s="78" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="Q78" s="78"/>
       <c r="R78" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="S78" s="81"/>
       <c r="V78" s="70"/>
@@ -35952,35 +35973,35 @@
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
       <c r="D82" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="E82" s="78" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="F82" s="78" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="G82" s="78"/>
       <c r="H82" s="78" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="I82" s="78" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="J82" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="K82" s="78" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="L82" s="78" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="M82" s="78" t="s">
         <v>601</v>
       </c>
       <c r="N82" s="78" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="O82" s="78"/>
       <c r="P82" s="78"/>
@@ -36116,47 +36137,47 @@
     <row r="86" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="22"/>
       <c r="D86" s="78" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="E86" s="78" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="F86" s="78" t="s">
         <v>1916</v>
       </c>
       <c r="G86" s="78" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="H86" s="78" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="I86" s="78" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="J86" s="78" t="s">
         <v>601</v>
       </c>
       <c r="K86" s="78" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="L86" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="M86" s="78" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="N86" s="78" t="s">
         <v>1918</v>
       </c>
       <c r="O86" s="78"/>
       <c r="P86" s="78" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="Q86" s="78" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="R86" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="S86" s="81"/>
       <c r="V86" s="7"/>
@@ -36286,47 +36307,47 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="22"/>
       <c r="D90" s="78" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="E90" s="78" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="F90" s="78" t="s">
         <v>601</v>
       </c>
       <c r="G90" s="78" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="H90" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="I90" s="78" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="J90" s="78" t="s">
         <v>601</v>
       </c>
       <c r="K90" s="78"/>
       <c r="L90" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="M90" s="78" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="N90" s="78" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="O90" s="78" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="P90" s="78" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="Q90" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="R90" s="78" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="S90" s="81"/>
       <c r="V90" s="7"/>
@@ -36456,47 +36477,47 @@
     <row r="94" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="22"/>
       <c r="D94" s="78" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="E94" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="F94" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="G94" s="78" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="H94" s="78"/>
       <c r="I94" s="78" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="J94" s="78" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="K94" s="78" t="s">
         <v>1849</v>
       </c>
       <c r="L94" s="78" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="M94" s="78" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
       <c r="N94" s="78" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="O94" s="78" t="s">
         <v>708</v>
       </c>
       <c r="P94" s="78" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="Q94" s="78" t="s">
         <v>601</v>
       </c>
       <c r="R94" s="78" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="S94" s="81"/>
       <c r="V94" s="7"/>
@@ -36624,32 +36645,32 @@
     <row r="98" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="22"/>
       <c r="D98" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="E98" s="78" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="F98" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="G98" s="78" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="H98" s="78"/>
       <c r="I98" s="78" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="J98" s="78" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="K98" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="L98" s="78" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="M98" s="78" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="N98" s="78"/>
       <c r="O98" s="78" t="s">
@@ -36659,10 +36680,10 @@
         <v>1871</v>
       </c>
       <c r="Q98" s="78" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="R98" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="S98" s="81"/>
       <c r="V98" s="7"/>
@@ -36715,7 +36736,7 @@
         <v>1918</v>
       </c>
       <c r="L100" s="77" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="M100" s="77" t="s">
         <v>1934</v>
@@ -36792,45 +36813,45 @@
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="22"/>
       <c r="D102" s="78" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="E102" s="78" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="F102" s="78"/>
       <c r="G102" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="H102" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="I102" s="78" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="J102" s="78" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="K102" s="78" t="s">
         <v>1918</v>
       </c>
       <c r="L102" s="78" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="M102" s="78" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="N102" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="O102" s="78" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="P102" s="78" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="Q102" s="78"/>
       <c r="R102" s="78" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="S102" s="81"/>
       <c r="V102" s="7"/>
@@ -36958,44 +36979,44 @@
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="22"/>
       <c r="D106" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="E106" s="78" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="F106" s="78" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="G106" s="78" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="H106" s="78" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="I106" s="78" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="J106" s="78" t="s">
         <v>601</v>
       </c>
       <c r="K106" s="78" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="L106" s="78"/>
       <c r="M106" s="78" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="N106" s="78" t="s">
         <v>637</v>
       </c>
       <c r="O106" s="78" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="P106" s="78" t="s">
         <v>601</v>
       </c>
       <c r="Q106" s="78" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="R106" s="78"/>
       <c r="S106" s="81"/>
@@ -37128,28 +37149,28 @@
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="22"/>
       <c r="D110" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="E110" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="F110" s="78" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="G110" s="78" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="H110" s="78" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="I110" s="78" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="J110" s="78" t="s">
         <v>601</v>
       </c>
       <c r="K110" s="78" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="L110" s="78"/>
       <c r="M110" s="78" t="s">
@@ -37159,13 +37180,13 @@
         <v>601</v>
       </c>
       <c r="O110" s="78" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="P110" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="Q110" s="78" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="R110" s="78" t="s">
         <v>601</v>
@@ -37211,7 +37232,7 @@
         <v>1851</v>
       </c>
       <c r="H112" s="77" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="I112" s="77" t="s">
         <v>1846</v>
@@ -37298,39 +37319,39 @@
     <row r="114" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="22"/>
       <c r="D114" s="78" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="E114" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="F114" s="78"/>
       <c r="G114" s="78" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="H114" s="78" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="I114" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="J114" s="78" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="K114" s="78"/>
       <c r="L114" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="M114" s="78" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="N114" s="78" t="s">
         <v>551</v>
       </c>
       <c r="O114" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="P114" s="78" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="Q114" s="78"/>
       <c r="R114" s="78" t="s">
@@ -37464,23 +37485,23 @@
     <row r="118" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="22"/>
       <c r="D118" s="78" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="E118" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="F118" s="78" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="G118" s="78" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="H118" s="78" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="I118" s="78"/>
       <c r="J118" s="78" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="K118" s="78" t="s">
         <v>882</v>
@@ -37490,19 +37511,19 @@
         <v>637</v>
       </c>
       <c r="N118" s="78" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="O118" s="78" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="P118" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="Q118" s="78" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="R118" s="78" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="S118" s="81"/>
       <c r="V118" s="7"/>
@@ -37629,39 +37650,39 @@
       <c r="B122" s="22"/>
       <c r="D122" s="78"/>
       <c r="E122" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="F122" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="G122" s="78" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="H122" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="I122" s="78" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="J122" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="K122" s="78"/>
       <c r="L122" s="78" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="M122" s="78" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="N122" s="78" t="s">
         <v>601</v>
       </c>
       <c r="O122" s="78" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="P122" s="78"/>
       <c r="Q122" s="78" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="R122" s="78" t="s">
         <v>512</v>
@@ -37794,40 +37815,40 @@
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="22"/>
       <c r="D126" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="E126" s="78" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="F126" s="78"/>
       <c r="G126" s="78" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="H126" s="78" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="I126" s="78" t="s">
         <v>601</v>
       </c>
       <c r="J126" s="78" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="K126" s="78"/>
       <c r="L126" s="78" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="M126" s="78" t="s">
         <v>512</v>
       </c>
       <c r="N126" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="O126" s="78" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="P126" s="78"/>
       <c r="Q126" s="78" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="R126" s="78" t="s">
         <v>599</v>
@@ -37964,47 +37985,47 @@
     <row r="130" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="22"/>
       <c r="D130" s="78" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="E130" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="F130" s="78" t="s">
         <v>1950</v>
       </c>
       <c r="G130" s="78" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="H130" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="I130" s="78" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="J130" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="K130" s="78" t="s">
         <v>1950</v>
       </c>
       <c r="L130" s="78" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="M130" s="78" t="s">
         <v>601</v>
       </c>
       <c r="N130" s="78" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="O130" s="78" t="s">
         <v>882</v>
       </c>
       <c r="P130" s="78"/>
       <c r="Q130" s="78" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="R130" s="78" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="S130" s="81"/>
       <c r="V130" s="7"/>
@@ -38121,31 +38142,31 @@
     <row r="134" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="22"/>
       <c r="D134" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="E134" s="78" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="F134" s="78" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="G134" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="H134" s="78" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="I134" s="78" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="J134" s="78" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="K134" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="L134" s="78" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="M134" s="78"/>
       <c r="N134" s="78"/>
@@ -38279,7 +38300,7 @@
     <row r="138" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="22"/>
       <c r="D138" s="78" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="E138" s="78" t="s">
         <v>601</v>
@@ -38288,36 +38309,36 @@
         <v>1955</v>
       </c>
       <c r="G138" s="78" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="H138" s="78"/>
       <c r="I138" s="78" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="J138" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="K138" s="78" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="L138" s="78" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="M138" s="78" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="N138" s="78" t="s">
         <v>601</v>
       </c>
       <c r="O138" s="78" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="P138" s="78"/>
       <c r="Q138" s="78" t="s">
         <v>484</v>
       </c>
       <c r="R138" s="78" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="S138" s="81"/>
       <c r="V138" s="7"/>
@@ -38445,16 +38466,16 @@
     <row r="142" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B142" s="22"/>
       <c r="D142" s="78" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="E142" s="78" t="s">
         <v>601</v>
       </c>
       <c r="F142" s="78" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="G142" s="78" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="H142" s="78" t="s">
         <v>1866</v>
@@ -38464,7 +38485,7 @@
         <v>484</v>
       </c>
       <c r="K142" s="78" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="L142" s="78" t="s">
         <v>661</v>
@@ -38473,17 +38494,17 @@
         <v>601</v>
       </c>
       <c r="N142" s="78" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="O142" s="78" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="P142" s="78" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="Q142" s="78"/>
       <c r="R142" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="S142" s="81"/>
       <c r="V142" s="7"/>
@@ -38611,45 +38632,45 @@
     <row r="146" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="22"/>
       <c r="D146" s="78" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="E146" s="78" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="F146" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="G146" s="78" t="s">
         <v>754</v>
       </c>
       <c r="H146" s="78" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="I146" s="78" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
       <c r="J146" s="78" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="K146" s="78"/>
       <c r="L146" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="M146" s="78" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="N146" s="78" t="s">
         <v>1954</v>
       </c>
       <c r="O146" s="78" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="P146" s="78" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="Q146" s="78"/>
       <c r="R146" s="78" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="S146" s="81"/>
       <c r="V146" s="7"/>
@@ -38688,7 +38709,7 @@
         <v>597</v>
       </c>
       <c r="H148" s="77" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="I148" s="77" t="s">
         <v>695</v>
@@ -38775,23 +38796,23 @@
     <row r="150" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="22"/>
       <c r="D150" s="78" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="E150" s="78" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
       <c r="F150" s="78"/>
       <c r="G150" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="H150" s="78" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="I150" s="78" t="s">
         <v>744</v>
       </c>
       <c r="J150" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="K150" s="78" t="s">
         <v>846</v>
@@ -38801,16 +38822,16 @@
         <v>512</v>
       </c>
       <c r="N150" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="O150" s="78" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="P150" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="Q150" s="78" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
       <c r="R150" s="78"/>
       <c r="S150" s="81"/>
@@ -38855,7 +38876,7 @@
         <v>1958</v>
       </c>
       <c r="I152" s="77" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="J152" s="77" t="s">
         <v>519</v>
@@ -38941,47 +38962,47 @@
     <row r="154" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="22"/>
       <c r="D154" s="78" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="E154" s="78" t="s">
         <v>519</v>
       </c>
       <c r="F154" s="78" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="G154" s="78" t="s">
         <v>601</v>
       </c>
       <c r="H154" s="78" t="s">
-        <v>2180</v>
+        <v>2184</v>
       </c>
       <c r="I154" s="78" t="s">
-        <v>2181</v>
+        <v>2185</v>
       </c>
       <c r="J154" s="78" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="K154" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="L154" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="M154" s="78" t="s">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="N154" s="78" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="O154" s="78"/>
       <c r="P154" s="78" t="s">
-        <v>2183</v>
+        <v>2187</v>
       </c>
       <c r="Q154" s="78" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="R154" s="78" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="S154" s="81"/>
       <c r="V154" s="7"/>
@@ -39116,38 +39137,38 @@
         <v>1961</v>
       </c>
       <c r="G158" s="78" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="H158" s="78" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="I158" s="78" t="s">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="J158" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="K158" s="78" t="s">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="L158" s="78" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="M158" s="78" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="N158" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="O158" s="78" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="P158" s="78" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="Q158" s="78"/>
       <c r="R158" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="S158" s="81"/>
       <c r="V158" s="7"/>
@@ -39179,7 +39200,7 @@
         <v>796</v>
       </c>
       <c r="E160" s="77" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="F160" s="77" t="s">
         <v>704</v>
@@ -39275,44 +39296,44 @@
     <row r="162" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B162" s="22"/>
       <c r="D162" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="E162" s="78" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="F162" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="G162" s="78" t="s">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="H162" s="78" t="s">
         <v>836</v>
       </c>
       <c r="I162" s="78" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="J162" s="78" t="s">
         <v>601</v>
       </c>
       <c r="K162" s="78"/>
       <c r="L162" s="78" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="M162" s="78" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="N162" s="78" t="s">
         <v>601</v>
       </c>
       <c r="O162" s="78" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
       <c r="P162" s="78" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="Q162" s="78" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="R162" s="78"/>
       <c r="S162" s="81"/>
@@ -39359,7 +39380,7 @@
         <v>1962</v>
       </c>
       <c r="I164" s="77" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="J164" s="77" t="s">
         <v>1846</v>
@@ -39448,41 +39469,41 @@
         <v>605</v>
       </c>
       <c r="E166" s="78" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="F166" s="78" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="G166" s="78" t="s">
+        <v>2072</v>
+      </c>
+      <c r="H166" s="78" t="s">
+        <v>2191</v>
+      </c>
+      <c r="I166" s="78" t="s">
+        <v>2182</v>
+      </c>
+      <c r="J166" s="78" t="s">
         <v>2068</v>
       </c>
-      <c r="H166" s="78" t="s">
-        <v>2187</v>
-      </c>
-      <c r="I166" s="78" t="s">
-        <v>2178</v>
-      </c>
-      <c r="J166" s="78" t="s">
-        <v>2064</v>
-      </c>
       <c r="K166" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="L166" s="78"/>
       <c r="M166" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="N166" s="78" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="O166" s="78" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="P166" s="78" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="Q166" s="78" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="R166" s="78" t="s">
         <v>601</v>
@@ -39613,7 +39634,7 @@
       <c r="B170" s="22"/>
       <c r="C170" s="6"/>
       <c r="D170" s="78" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="E170" s="78"/>
       <c r="F170" s="78" t="s">
@@ -39623,35 +39644,35 @@
         <v>2032</v>
       </c>
       <c r="H170" s="78" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="I170" s="78" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="J170" s="78" t="s">
         <v>601</v>
       </c>
       <c r="K170" s="78" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="L170" s="78"/>
       <c r="M170" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="N170" s="78" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="O170" s="78" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="P170" s="78" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="Q170" s="78" t="s">
         <v>601</v>
       </c>
       <c r="R170" s="78" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="S170" s="84"/>
     </row>
@@ -39778,45 +39799,45 @@
       <c r="B174" s="22"/>
       <c r="C174" s="6"/>
       <c r="D174" s="78" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="E174" s="78" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="F174" s="78"/>
       <c r="G174" s="78" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="H174" s="78" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="I174" s="78" t="s">
         <v>601</v>
       </c>
       <c r="J174" s="78" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K174" s="78" t="s">
+        <v>2195</v>
+      </c>
+      <c r="L174" s="78" t="s">
+        <v>2118</v>
+      </c>
+      <c r="M174" s="78" t="s">
         <v>2048</v>
       </c>
-      <c r="K174" s="78" t="s">
-        <v>2191</v>
-      </c>
-      <c r="L174" s="78" t="s">
-        <v>2114</v>
-      </c>
-      <c r="M174" s="78" t="s">
-        <v>2044</v>
-      </c>
       <c r="N174" s="78" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="O174" s="78"/>
       <c r="P174" s="78" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="Q174" s="78" t="s">
         <v>599</v>
       </c>
       <c r="R174" s="78" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="S174" s="84"/>
     </row>
@@ -39898,7 +39919,7 @@
       <c r="B178" s="22"/>
       <c r="C178" s="6"/>
       <c r="D178" s="78" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="E178" s="78" t="s">
         <v>882</v>

--- a/output7/【河洛文讀注音-閩拼調號】《深慮論》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《深慮論》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24680E32-047F-4589-BCA9-9231A28D25C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91546C5A-C62C-4C72-BA55-A31C2CD58C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="6" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -3840,11 +3840,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注音二式</t>
-  </si>
-  <si>
     <t>gi1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五音</t>
   </si>
 </sst>
 </file>
@@ -4770,7 +4770,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -4930,7 +4930,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -5015,16 +5015,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>958</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>959</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>960</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15144,16 +15144,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>958</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>959</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>960</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15195,8 +15195,8 @@
   <dimension ref="A1:V482"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -19779,7 +19779,7 @@
         <v>175</v>
       </c>
       <c r="K110" s="48" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="L110" s="48"/>
       <c r="M110" s="48" t="s">
